--- a/test-data/7월_용역자명단_추가.xlsx
+++ b/test-data/7월_용역자명단_추가.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,9 +554,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>880404-1234567</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>하나은행</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>456-789-012345</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>김영수</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>최설계</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -565,22 +640,22 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>park001</t>
+          <t>박철수</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>박철수</t>
+          <t>박철수2</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>010-4444-4444</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>880404-1234567</t>
+          <t>880405-1234567</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -590,7 +665,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>456-789-012345</t>
+          <t>456-789-012346</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -600,17 +675,17 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>010-2222-2222</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>최설계</t>
+          <t>정설계</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>010-9994-0004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -631,7 +706,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -640,22 +715,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>park001</t>
+          <t>박철수</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>박철수2</t>
+          <t>박철수3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>010-4445-4445</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>880405-1234567</t>
+          <t>880406-1234567</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -665,27 +740,27 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>456-789-012346</t>
+          <t>456-789-012347</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>김영수</t>
+          <t>이미영</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-2222-2222</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>정설계</t>
+          <t>강설계</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>010-9995-0005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -706,7 +781,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -715,32 +790,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>park001</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>박철수3</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>010-4446-4446</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>880406-1234567</t>
+          <t>920505-2234567</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>456-789-012347</t>
+          <t>567-890-123456</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -750,17 +825,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>010-3333-3333</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>강설계</t>
+          <t>윤설계</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>010-9996-0006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -781,7 +856,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -790,52 +865,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>kang001</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>강민지</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>010-5555-5555</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>920505-2234567</t>
+          <t>700606-1234567</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>KB국민은행</t>
+          <t>농협은행</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>567-890-123456</t>
+          <t>678-901-234567</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>이미영</t>
+          <t>박철수</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>010-3333-3333</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>윤설계</t>
+          <t>서설계</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>010-9997-0007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -856,7 +931,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -865,32 +940,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>lee002</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>이순신</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>010-6666-6666</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>700606-1234567</t>
+          <t>750707-1234567</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>농협은행</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>678-901-234567</t>
+          <t>789-012-345678</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +975,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>010-4444-4444</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>서설계</t>
+          <t>노설계</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>010-9998-0008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
@@ -931,7 +1006,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -940,52 +1015,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>kim002</t>
+          <t>조동현</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>김유신</t>
+          <t>조동현</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>010-7777-7777</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>750707-1234567</t>
+          <t>930808-1234567</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>신협</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>789-012-345678</t>
+          <t>890-123-456789</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>박철수</t>
+          <t>박철수2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>010-4444-4444</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>노설계</t>
+          <t>구설계</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>010-9999-0009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
@@ -1001,81 +1076,6 @@
       <c r="O8" s="2" t="inlineStr">
         <is>
           <t>서초지점</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>jo001</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>조동현</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>010-8888-8888</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>930808-1234567</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>신협</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>890-123-456789</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>박철수2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>010-4445-4445</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>구설계</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>010-9990-0010</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>DB손해보험 운전자보험</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>DB손해보험</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>송파지점</t>
         </is>
       </c>
     </row>

--- a/test-data/7월_용역자명단_추가.xlsx
+++ b/test-data/7월_용역자명단_추가.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07 용역자명단" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="용역자 명단" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,14 +26,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -45,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -58,34 +52,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00D3D3D3"/>
-      </left>
-      <right style="thin">
-        <color rgb="00D3D3D3"/>
-      </right>
-      <top style="thin">
-        <color rgb="00D3D3D3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00D3D3D3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,21 +434,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
+    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="19.2" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="22.8" customWidth="1" min="8" max="8"/>
+    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="7.199999999999999" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="8.4" customWidth="1" min="13" max="13"/>
+    <col width="7.199999999999999" customWidth="1" min="14" max="14"/>
+    <col width="10.8" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -555,527 +529,471 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>010-2141-3119</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>830824-2312332</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>신한은행</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>263-263-100489</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>김영수</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>010-3793-5771</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>박과장</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>010-8749-8727</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>880404-1234567</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>하나은행</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>456-789-012345</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>김영수</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>삼성화재 실손보험</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>삼성화재</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>강남지점</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>박철수2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>박철수2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>010-2148-3132</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>840925-1324678</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>우리은행</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1164-264-100820</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>010-3804-5788</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>박대리</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>010-8772-8756</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>박철수2</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>880405-1234567</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>하나은행</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>456-789-012346</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>김영수</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>정설계</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>현대해상 암보험</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>현대해상</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>서초지점</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>박철수3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>박철수3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>010-2155-3145</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>851026-2337024</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>하나은행</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>265-100165-11815</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>박철수2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>010-3815-5805</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>박주임</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>010-8795-8785</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>박철수3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>880406-1234567</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>하나은행</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>456-789-012347</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>강설계</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>DB손해보험 운전자보험</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>DB손해보험</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>송파지점</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>박철수4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>박철수4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>010-2162-3158</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>861127-1349369</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>농협은행</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>266-1166-2162-86</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>010-3826-5822</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>박실장</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>010-8818-8814</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>강민지</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>강민지</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>920505-2234567</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>KB국민은행</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>567-890-123456</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>윤설계</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>KB손해보험 여행자보험</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>KB손해보험</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>광화문지점</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>강민지</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>강민지</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>010-2169-3171</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>871228-2361715</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>기업은행</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>267-100167-87-267</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>박철수3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>010-3837-5839</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>강부장</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>010-8841-8843</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>이순신</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>이순신</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>700606-1234567</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>농협은행</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>678-901-234567</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>서설계</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>메리츠화재 건강보험</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>메리츠화재</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>종로지점</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>이순신</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>이순신</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>010-2176-3184</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>880101-1374060</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NH농협은행</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>268-1168-2176-88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>이미영</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>010-3848-5856</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>이설계</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>010-8864-8872</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>김유신</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>김유신</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>750707-1234567</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>기업은행</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>789-012-345678</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>노설계</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>삼성화재 실손보험</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>삼성화재</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>강남지점</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>김유신</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>김유신</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>010-2183-3197</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>890202-2386406</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>카카오뱅크</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3333-71-1002873</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>이순신</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>010-3859-5873</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>김매니저</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>010-8887-8901</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
         <is>
           <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>조동현</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>조동현</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>930808-1234567</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>신협</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>890-123-456789</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>박철수2</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>구설계</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>010-1234-5678</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>현대해상 암보험</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>현대해상</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>서초지점</t>
         </is>
       </c>
     </row>

--- a/test-data/7월_용역자명단_추가.xlsx
+++ b/test-data/7월_용역자명단_추가.xlsx
@@ -436,7 +436,7 @@
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="19.2" customWidth="1" min="6" max="6"/>
@@ -446,9 +446,9 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="7.199999999999999" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="8.4" customWidth="1" min="13" max="13"/>
-    <col width="7.199999999999999" customWidth="1" min="14" max="14"/>
-    <col width="10.8" customWidth="1" min="15" max="15"/>
+    <col width="20.4" customWidth="1" min="13" max="13"/>
+    <col width="9.6" customWidth="1" min="14" max="14"/>
+    <col width="7.199999999999999" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -587,11 +587,19 @@
           <t>010-8749-8727</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -606,14 +614,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>박철수2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>박철수2</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>010-2148-3132</t>
@@ -654,11 +662,19 @@
           <t>010-8772-8756</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -673,14 +689,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>박철수3</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>박철수3</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>010-2155-3145</t>
@@ -721,11 +737,19 @@
           <t>010-8795-8785</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -740,14 +764,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>박철수</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>박철수4</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>박철수4</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>010-2162-3158</t>
@@ -770,7 +794,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>박철수</t>
+          <t>김영수</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,11 +812,19 @@
           <t>010-8818-8814</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -855,11 +887,19 @@
           <t>010-8841-8843</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -922,11 +962,19 @@
           <t>010-8864-8872</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -971,7 +1019,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>이순신</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -989,11 +1037,19 @@
           <t>010-8887-8901</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
